--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renta\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6AC8DF-CD9A-473E-A830-E55062D7B276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BC0E29-FCAA-4A25-A899-A2690D8CBA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F3A631C1-FC5F-43B2-A02A-BE31459615C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{F3A631C1-FC5F-43B2-A02A-BE31459615C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="carrier prefrences" sheetId="3" r:id="rId3"/>
+    <sheet name="APIs" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="613">
   <si>
     <t>US Marketplace Return Policy Competitive Analysis 2024-2025</t>
   </si>
@@ -1072,13 +1075,2373 @@
   </si>
   <si>
     <t>These policies reflect broader marketplace strategies: Temu prioritizes customer acquisition through generous policies, Amazon balances customer satisfaction with operational efficiency, Walmart emphasizes customer protection, eBay maintains seller flexibility, and Shein focuses on fashion-specific requirements with platform control.</t>
+  </si>
+  <si>
+    <t>Here's the transposed version of all tables for Excel:</t>
+  </si>
+  <si>
+    <t>The return policy landscape among major US marketplaces reveals dramatic variations in customer protections and seller requirements, with Temu offering the most generous 90-day window while eBay provides the most seller flexibility. Amazon's introduction of returns processing fees in 2024 represents a significant shift toward cost optimization, while Walmart maintains strong customer protections through extended holiday periods and comprehensive fulfillment services.</t>
+  </si>
+  <si>
+    <t>Return Window Comparison - Transposed</t>
+  </si>
+  <si>
+    <t>Attribute Walmart Marketplace Amazon eBay Shein Temu Standard Window 30 days (sellers) / 90 days (WFS) 30 days 14-60 days (seller choice) 30 days 90 days Holiday Extension Oct 1-Dec 31 → Jan 31 Nov 1-Dec 31 → Jan 31 (Apple: Jan 15) No structured program Occasional extensions Not needed Calculation Method From delivery date From delivery date From delivery date From delivery date From purchase date Electronics 30 days 30 days (Apple: 15 days) Seller discretionary 30 days 45-90 days (seller variable) Fashion/Apparel 30-90 days 30 days Seller discretionary 30 days 90 days</t>
+  </si>
+  <si>
+    <t>Shipping Cost Structure - Transposed</t>
+  </si>
+  <si>
+    <t>Attribute Walmart Marketplace Amazon eBay Shein Temu First Return Free (seller cannot charge) Varies by seller Seller discretionary (Parts &amp; Accessories: Free) Free Free Subsequent Returns Free (seller cannot charge) Varies by seller Seller discretionary $7.99 + tax $7.99 + tax Seller Requirements Must provide free return shipping Must match/exceed Amazon policy 50% subsidy for P&amp;A sellers Platform controlled Platform controlled Fulfillment Service Benefits WFS: Free returns FBA: Free returns No specific program Not applicable Not applicable</t>
+  </si>
+  <si>
+    <t>Seller Policy Flexibility - Transposed</t>
+  </si>
+  <si>
+    <t>Attribute Walmart Marketplace Amazon eBay Shein Temu Return Window Control 30+ days required 30+ days required 14-60 days choice No control Limited control (electronics) Shipping Cost Control Cannot charge customers Seller discretionary Full control (P&amp;A: Must be free) No control No control Restocking Fees Up to 20% (luxury/exempted) Limited circumstances Seller defined No control No control Custom Rules Keep It Rules, multiple return centers Returnless refunds, automated approvals Automated rules, condition deductions No seller customization Minimal seller customization</t>
+  </si>
+  <si>
+    <t>Processing and Features - Transposed</t>
+  </si>
+  <si>
+    <t>Attribute Walmart Marketplace Amazon eBay Shein Temu Refund Timeline 2-10 business days 2 hours-30 days 3-30 business days Up to 15 days Under 3 minutes (credits) / 5-14 days (original payment) Quality Inspection Basic verification Seller/platform hybrid Seller controlled Thorough inspection with rejections Comprehensive inspection Mobile Features Receipt scanning, curbside returns QR codes, 8,000+ locations Mobile app integration Full app functionality Complete mobile process Bulk Returns Multiple items per return Bundle requirements apply Individual cases per listing Combined returns within orders Partial order returns allowed</t>
+  </si>
+  <si>
+    <t>Fee Structures (2024-2025) - Transposed</t>
+  </si>
+  <si>
+    <t>Attribute Walmart Marketplace Amazon eBay Shein Temu Processing Fees None for sellers NEW: High return rate fee (June 2024) 50% of fulfillment fee $7.99 return shipping $7.99 subsequent returns Late Fees None specified 20% of item price None specified None specified None specified Restocking Fees Up to 20% (exempted items) 100% for specific categories Seller defined Not permitted Not typically permitted Damage Fees Seller discretionary Up to 50% (100% luxury) Up to 50% of item value Refund reductions for damage Compensation deductions</t>
+  </si>
+  <si>
+    <t>Special Category Policies - Transposed</t>
+  </si>
+  <si>
+    <t>Attribute Walmart Marketplace Amazon eBay Shein Temu Non-Returnable Categories Prescriptions, diabetic supplies, firearms, gift cards Health/safety items, customized products, perishables Digital content, NFTs, intangible goods Lingerie, swimwear, cosmetics, customized items Food products, opened hygiene items, customized products Electronics Requirements Data erasure, original packaging Data erasure, serial numbers intact Standard condition requirements Personal data erasure required Original condition with barcodes High-Value Protections Insurance recommended &gt;$600 Signature required, enhanced verification Signature &gt;$750, authentication program Standard inspection process Standard quality inspection</t>
+  </si>
+  <si>
+    <t>• Temu's 90-day window and instant credit refunds represent the most aggressive customer acquisition strategy • Amazon's 2024 returns processing fee signals industry movement toward return cost optimization • Walmart's comprehensive seller restrictions maintain customer experience consistency at the expense of seller flexibility • eBay's seller-centric approach remains unique among major marketplaces • Platform-controlled fulfillment services (WFS, FBA) increasingly provide superior return experiences • The convergence on $7.99 subsequent return fees across Amazon, Shein, and Temu indicates market-tested pricing • Quality inspection sophistication varies dramatically based on marketplace positioning and fraud prevention priorities</t>
+  </si>
+  <si>
+    <t>Return Carrier Competitive Analysis: Amazon, eBay, and Walmart</t>
+  </si>
+  <si>
+    <t>Comprehensive Comparison Table</t>
+  </si>
+  <si>
+    <t>Attribute/Metric</t>
+  </si>
+  <si>
+    <t>CARRIER OPTIONS</t>
+  </si>
+  <si>
+    <t>Primary Carriers</t>
+  </si>
+  <si>
+    <t>USPS, UPS, FedEx (renewed 2024)</t>
+  </si>
+  <si>
+    <t>USPS (primary), FedEx, UPS</t>
+  </si>
+  <si>
+    <t>USPS, FedEx, UPS</t>
+  </si>
+  <si>
+    <t>Carrier Selection</t>
+  </si>
+  <si>
+    <t>AI-driven automatic optimization</t>
+  </si>
+  <si>
+    <t>Managed Returns auto-generates USPS labels</t>
+  </si>
+  <si>
+    <t>Dynamic selection based on cost/speed</t>
+  </si>
+  <si>
+    <t>Unique Partnerships</t>
+  </si>
+  <si>
+    <t>Whole Foods, Kohl's, Amazon Lockers</t>
+  </si>
+  <si>
+    <t>Authentication centers for high-value items</t>
+  </si>
+  <si>
+    <t>InHome delivery integration</t>
+  </si>
+  <si>
+    <t>DROP-OFF LOCATIONS</t>
+  </si>
+  <si>
+    <t>Number of Locations</t>
+  </si>
+  <si>
+    <t>8,000+ locations</t>
+  </si>
+  <si>
+    <t>Relies on carrier networks (no proprietary)</t>
+  </si>
+  <si>
+    <t>4,600+ stores + partner locations</t>
+  </si>
+  <si>
+    <t>Location Types</t>
+  </si>
+  <si>
+    <t>Whole Foods (500+), Kohl's, UPS Stores (5,200+), Amazon Lockers</t>
+  </si>
+  <si>
+    <t>USPS offices, FedEx (limited rural access), UPS</t>
+  </si>
+  <si>
+    <t>Walmart stores, FedEx Office, curbside</t>
+  </si>
+  <si>
+    <t>Unique Features</t>
+  </si>
+  <si>
+    <t>QR code label-free returns</t>
+  </si>
+  <si>
+    <t>Authenticity Guarantee centers</t>
+  </si>
+  <si>
+    <t>30-second in-store processing</t>
+  </si>
+  <si>
+    <t>COST STRUCTURE</t>
+  </si>
+  <si>
+    <t>Who Pays for Returns</t>
+  </si>
+  <si>
+    <t>Amazon (Prime/defective), Seller (high return rates)</t>
+  </si>
+  <si>
+    <t>Seller (not as described), Buyer (changed mind)</t>
+  </si>
+  <si>
+    <t>Walmart (most returns), Sellers (marketplace)</t>
+  </si>
+  <si>
+    <t>Fee Structure</t>
+  </si>
+  <si>
+    <t>$1.84-$8.98 per unit for high-return products</t>
+  </si>
+  <si>
+    <t>Variable by seller, often exceeds outbound cost</t>
+  </si>
+  <si>
+    <t>RSS program with negotiated rates</t>
+  </si>
+  <si>
+    <t>Recent Changes</t>
+  </si>
+  <si>
+    <t>2024 processing fees for 2.9%-12.8% return rates</t>
+  </si>
+  <si>
+    <t>Upfront billing for UPS/FedEx labels</t>
+  </si>
+  <si>
+    <t>March 2024 rate increase (first in 2 years)</t>
+  </si>
+  <si>
+    <t>INNOVATION FEATURES</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>QR codes, AI carrier selection, instant refunds</t>
+  </si>
+  <si>
+    <t>Managed Returns automation, International Shipping program</t>
+  </si>
+  <si>
+    <t>AI route optimization, blockchain pilots</t>
+  </si>
+  <si>
+    <t>Returnless Refunds</t>
+  </si>
+  <si>
+    <t>15 million in 2024 (340% increase from 2022)</t>
+  </si>
+  <si>
+    <t>Not offered</t>
+  </si>
+  <si>
+    <t>"Keep It" policy for low-value items</t>
+  </si>
+  <si>
+    <t>Processing Speed</t>
+  </si>
+  <si>
+    <t>Instant refunds at drop-off</t>
+  </si>
+  <si>
+    <t>Real-time inventory updates</t>
+  </si>
+  <si>
+    <t>2024-2025 POLICY CHANGES</t>
+  </si>
+  <si>
+    <t>Major Updates</t>
+  </si>
+  <si>
+    <t>• Processing fees introduced&lt;br&gt;• FedEx partnership renewed&lt;br&gt;• UPS volume reduction</t>
+  </si>
+  <si>
+    <t>• Dual-label acceptance eliminated&lt;br&gt;• FedEx labels for larger items&lt;br&gt;• Upfront carrier billing</t>
+  </si>
+  <si>
+    <t>• Rate increases for sellers&lt;br&gt;• Multichannel Solutions launch&lt;br&gt;• AI technology commercialization</t>
+  </si>
+  <si>
+    <t>Strategic Focus</t>
+  </si>
+  <si>
+    <t>Cost optimization, carrier diversification</t>
+  </si>
+  <si>
+    <t>Operational streamlining</t>
+  </si>
+  <si>
+    <t>Omnichannel integration</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL RETURNS</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>$20-25 automatic shipping refunds, local destinations in select countries</t>
+  </si>
+  <si>
+    <t>eBay International Shipping absorbs all costs</t>
+  </si>
+  <si>
+    <t>Requires US-based return address</t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t>Reduced through local partnerships</t>
+  </si>
+  <si>
+    <t>Fully managed by eBay</t>
+  </si>
+  <si>
+    <t>Limited global support</t>
+  </si>
+  <si>
+    <t>CUSTOMER SATISFACTION</t>
+  </si>
+  <si>
+    <t>ACSI Score</t>
+  </si>
+  <si>
+    <t>83/100</t>
+  </si>
+  <si>
+    <t>Not specified (mixed seller feedback)</t>
+  </si>
+  <si>
+    <t>Not specified (positive omnichannel feedback)</t>
+  </si>
+  <si>
+    <t>Key Metrics</t>
+  </si>
+  <si>
+    <t>• 78% returnless refund repurchase rate&lt;br&gt;• 70% make additional purchases</t>
+  </si>
+  <si>
+    <t>43% of forum posts cite excessive costs</t>
+  </si>
+  <si>
+    <t>95% same-day coverage goal for 2025</t>
+  </si>
+  <si>
+    <t>Pain Points</t>
+  </si>
+  <si>
+    <t>Some satisfaction decline noted</t>
+  </si>
+  <si>
+    <t>Rural FedEx accessibility, cost mismatches</t>
+  </si>
+  <si>
+    <t>International limitations</t>
+  </si>
+  <si>
+    <t>UNIQUE ADVANTAGES</t>
+  </si>
+  <si>
+    <t>Primary Strength</t>
+  </si>
+  <si>
+    <t>Technology leadership, scale</t>
+  </si>
+  <si>
+    <t>International program, authentication</t>
+  </si>
+  <si>
+    <t>Physical infrastructure (largest)</t>
+  </si>
+  <si>
+    <t>Differentiators</t>
+  </si>
+  <si>
+    <t>• Label-free returns&lt;br&gt;• Consolidated FedEx returns&lt;br&gt;• Happy Returns acquisition</t>
+  </si>
+  <si>
+    <t>• Authenticity Guarantee&lt;br&gt;• Marketplace flexibility</t>
+  </si>
+  <si>
+    <t>• InHome pickup&lt;br&gt;• Curbside returns&lt;br&gt;• Immediate refunds</t>
+  </si>
+  <si>
+    <t>KEY CHALLENGES</t>
+  </si>
+  <si>
+    <t>Main Issues</t>
+  </si>
+  <si>
+    <t>UPS reducing volume by 50%+ by 2026</t>
+  </si>
+  <si>
+    <t>• Seller cost complaints&lt;br&gt;• Limited carrier choice&lt;br&gt;• Rural accessibility</t>
+  </si>
+  <si>
+    <t>• Technology gap vs Amazon&lt;br&gt;• International capabilities</t>
+  </si>
+  <si>
+    <t>Operational</t>
+  </si>
+  <si>
+    <t>Managing carrier relationships post-UPS</t>
+  </si>
+  <si>
+    <t>USPS weight limits (70 lbs) problematic</t>
+  </si>
+  <si>
+    <t>Balancing marketplace vs retail</t>
+  </si>
+  <si>
+    <t>MARKETPLACE SPECIFICS</t>
+  </si>
+  <si>
+    <t>Seller Support</t>
+  </si>
+  <si>
+    <t>Expanded returnless to 3P sellers</t>
+  </si>
+  <si>
+    <t>Managed Returns program</t>
+  </si>
+  <si>
+    <t>Return Shipping Service (RSS)</t>
+  </si>
+  <si>
+    <t>Cost Savings</t>
+  </si>
+  <si>
+    <t>Through scale and automation</t>
+  </si>
+  <si>
+    <t>Limited due to marketplace model</t>
+  </si>
+  <si>
+    <t>15% savings via Multichannel Solutions</t>
+  </si>
+  <si>
+    <t>Label Generation</t>
+  </si>
+  <si>
+    <t>Automatic optimization</t>
+  </si>
+  <si>
+    <t>USPS default regardless of outbound</t>
+  </si>
+  <si>
+    <t>Seller choice with RSS</t>
+  </si>
+  <si>
+    <t>STRATEGIC INITIATIVES</t>
+  </si>
+  <si>
+    <t>Current Focus</t>
+  </si>
+  <si>
+    <t>Carrier diversification, cost management</t>
+  </si>
+  <si>
+    <t>Streamlining operations, reducing friction</t>
+  </si>
+  <si>
+    <t>Omnichannel excellence, tech commercialization</t>
+  </si>
+  <si>
+    <t>Future Direction</t>
+  </si>
+  <si>
+    <t>Reducing single-carrier dependence</t>
+  </si>
+  <si>
+    <t>Improving seller satisfaction</t>
+  </si>
+  <si>
+    <t>LocalFinds program, expanded services</t>
+  </si>
+  <si>
+    <t>Key Takeaways for Walmart</t>
+  </si>
+  <si>
+    <t>Competitive Advantages to Leverage:</t>
+  </si>
+  <si>
+    <r>
+      <t>Largest physical return network</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (4,600+ stores vs Amazon's 8,000+ partner locations)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fastest in-store processing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (30-second goal)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Unique services</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (InHome pickup, curbside returns)</t>
+    </r>
+  </si>
+  <si>
+    <t>Critical Gaps to Address:</t>
+  </si>
+  <si>
+    <r>
+      <t>Technology deficit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Amazon's QR codes and AI optimization set customer expectations</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>International capabilities</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Both competitors offer better global solutions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Returnless refunds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Amazon processing 15M annually vs Walmart's limited "Keep It" policy</t>
+    </r>
+  </si>
+  <si>
+    <t>Strategic Priorities:</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Accelerate digital innovation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> while maintaining physical advantages</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. Expand carrier partnerships</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to match Amazon's diversification</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. Develop international strategy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to compete globally</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4. Scale innovative services</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (InHome, curbside) for differentiation</t>
+    </r>
+  </si>
+  <si>
+    <t>Amazon sets the innovation benchmark with advanced technology</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Amazon operates the most sophisticated return ecosystem, processing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15 million returnless refunds in 2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (a 340% increase from 2022) and serving customers through </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8,000+ drop-off locations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. The company's QR code technology eliminates printing and packaging requirements at Whole Foods, Kohl's, and UPS stores, while their carrier selection algorithm automatically optimizes between USPS, UPS, and the recently renewed FedEx partnership.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Major 2024-2025 changes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> include implementing returns processing fees ($1.84-$8.98 per unit) for high-return products, expanding returnless refunds to third-party sellers, and reducing dependence on UPS while rebuilding the FedEx relationship after a 6-year hiatus. Amazon's strategic carrier diversification addresses cost optimization as UPS plans to reduce Amazon volume by 50%+ by 2026.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Amazon covers return shipping costs for most items under 50 pounds, with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>free returns guaranteed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for Prime members and defective items. International customers receive automatic $20-25 return shipping refunds, with local return destinations in select countries reducing cross-border complexity.</t>
+    </r>
+  </si>
+  <si>
+    <t>eBay's marketplace model creates unique return challenges</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">eBay's return system differs fundamentally from traditional retailers due to its marketplace structure where individual sellers have varying capabilities. The platform's </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>managed returns program</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> automatically generates USPS labels for most returns, regardless of original outbound carrier, creating frequent </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cost mismatches</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> where sellers report return shipping exceeding original delivery costs.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Critical 2024 policy changes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> include eliminating dual-label acceptance (FedEx packages can no longer be dropped at USPS), introducing FedEx return labels that create rural accessibility issues, and implementing upfront billing for UPS/FedEx labels. These changes reflect eBay's effort to streamline operations while managing multiple carrier relationships.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eBay International Shipping program</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> represents their most successful innovation, with eBay absorbing all international return costs and logistics complexity. The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Authenticity Guarantee program</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provides premium return experiences through authentication centers for high-value categories like watches, sneakers, and handbags.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">eBay sellers frequently complain about lack of carrier choice, with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>43% of forum posts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mentioning return costs exceeding outbound shipping. Rural buyers face significant challenges with FedEx returns due to limited location access compared to USPS's extensive network.</t>
+    </r>
+  </si>
+  <si>
+    <t>Walmart leverages omnichannel advantage through physical infrastructure</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Walmart's </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4,600+ store locations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provide the industry's largest physical return network, enabling immediate refund processing and 30-second return processing goals. The retailer's omnichannel integration allows online purchases to be returned to any store location, creating a significant competitive advantage over online-only competitors.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Recent strategic changes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> include March 2024 rate increases for third-party sellers (first increase in two years), launch of the Multichannel Solutions program offering 15% cost savings, and commercialization of AI-powered route optimization technology. These changes reflect Walmart's evolution from traditional retailer to technology-enabled logistics platform.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Walmart's </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>innovative services</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> include InHome pickup (associates collect returns during delivery routes), curbside returns via app processing, and "Keep It" policies allowing customers to retain low-value items while receiving refunds. The Walmart Returns Shipping Service (RSS) provides automated carrier selection and negotiated rates for marketplace sellers.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Carrier partnerships</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> span USPS (primary mail carrier), FedEx (comprehensive including home pickup), and UPS (limited direct integration), with dynamic selection based on cost and speed optimization. International returns require US-based return addresses, limiting direct global support compared to competitors.</t>
+    </r>
+  </si>
+  <si>
+    <t>Cost structures reveal strategic positioning differences</t>
+  </si>
+  <si>
+    <r>
+      <t>Amazon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> absorbs most return costs for Prime members and first-party sales, while implementing processing fees for high-return-rate products to manage seller behavior. The 2024 fee structure ($1.84-$8.98 per unit) targets categories exceeding return rate thresholds ranging from 2.9%-12.8%.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>eBay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> creates cost responsibility complexity through its marketplace model, where sellers typically pay return shipping for "not as described" items while buyers pay for "changed mind" returns. The platform's automated USPS label generation often results in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>higher return costs than original shipping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, particularly problematic for heavy items approaching the 70-pound USPS limit.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Walmart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> covers return shipping for most customer returns while charging third-party sellers through RSS. The March 2024 rate increases, while described as "nominal," represent the first adjustment in two years, indicating pressure from changing market conditions.</t>
+    </r>
+  </si>
+  <si>
+    <t>Drop-off networks showcase different strategic approaches</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Amazon's </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8,000+ locations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> include partnerships with Whole Foods (500+), Kohl's, UPS Stores (5,200+), and Amazon Lockers, with QR code technology enabling label-free, box-free returns. The Happy Returns acquisition expanded UPS partnership capabilities significantly.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">eBay relies primarily on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>USPS's extensive network</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for accessibility, with emerging FedEx integration creating rural coverage gaps. The platform's marketplace model limits centralized drop-off network development, depending instead on existing carrier infrastructure.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Walmart's </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>physical store advantage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provides immediate processing capabilities that competitors cannot match. Additional partnerships with FedEx Office locations and scheduled pickup services create comprehensive coverage, while InHome and curbside options offer unique convenience.</t>
+    </r>
+  </si>
+  <si>
+    <t>Innovation leadership drives competitive differentiation</t>
+  </si>
+  <si>
+    <r>
+      <t>Amazon leads in technology adoption</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with QR codes, AI-driven carrier selection, and returnless refunds reaching 78% repeat purchase rates within 30 days. Their instant refund capabilities and consolidated returns through FedEx demonstrate continued innovation focus.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>eBay's authentication integration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> creates premium return experiences for high-value items, while the International Shipping program effectively solves cross-border complexity. However, the platform struggles with seller cost management and carrier choice limitations.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Walmart emphasizes omnichannel integration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with real-time inventory updates across channels, AI-powered route optimization, and blockchain traceability pilots. The LocalFinds preview program suggests expansion into local seller integration.</t>
+    </r>
+  </si>
+  <si>
+    <t>Customer satisfaction data reveals performance gaps</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Industry data shows </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>76% of consumers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> consider free returns essential, while </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>84% prefer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> box-free, label-free returns with instant refunds. Amazon maintains an 83/100 ACSI score despite some satisfaction decline, with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>70% of customers making additional purchases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> due to positive return experiences.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">eBay faces significant seller satisfaction challenges, with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cost complaints</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dominating community forums and rural accessibility issues affecting buyer experience. The managed returns program receives mixed reception, with larger sellers more positive about automation benefits.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Walmart's omnichannel integration receives positive customer feedback, with the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>95% same-day coverage goal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for 2025 positioning the retailer ahead of industry standards. The 4,600+ store network provides competitive advantages in customer convenience and processing speed.</t>
+    </r>
+  </si>
+  <si>
+    <t>Strategic recommendations for Walmart</t>
+  </si>
+  <si>
+    <r>
+      <t>Leverage physical infrastructure advantages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Walmart's store network remains unmatched, but maximizing this advantage requires continued investment in omnichannel technology and associate training for seamless cross-channel experiences.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Accelerate technology adoption</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Amazon's QR code success and AI-driven optimizations suggest opportunities for Walmart to enhance digital convenience while maintaining physical touchpoint advantages.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Optimize carrier partnerships</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: The March 2024 rate increases indicate market pressure, but Walmart's volume should enable competitive negotiation. Consider following Amazon's carrier diversification strategy to reduce single-point dependencies.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Expand innovative services</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: InHome pickup and curbside returns differentiate Walmart effectively. Consider piloting "Keep It" policy expansion and investigating returnless refund opportunities for appropriate product categories.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>International strategy development</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Unlike Amazon's global return infrastructure, Walmart's US-focused approach limits international competitiveness. Consider strategic partnerships or fulfillment center expansion for enhanced global capabilities.</t>
+    </r>
+  </si>
+  <si>
+    <t>The competitive landscape shows clear differentiation opportunities through enhanced technology adoption, expanded innovative services, and strategic carrier partnerships while leveraging Walmart's unique physical infrastructure advantages.</t>
+  </si>
+  <si>
+    <t>Seller-Facing Platforms &amp; APIs: eBay, Amazon &amp; Walmart - Competitive Analysis Report</t>
+  </si>
+  <si>
+    <t>Executive Summary</t>
+  </si>
+  <si>
+    <t>This report provides a comprehensive analysis of the seller-facing platforms and APIs offered by three major e-commerce marketplaces: eBay, Amazon, and Walmart. Each platform has developed distinct approaches to API architecture, seller tools, and integration capabilities that reflect their unique marketplace philosophies and business models.</t>
+  </si>
+  <si>
+    <t>Key Findings:</t>
+  </si>
+  <si>
+    <r>
+      <t>eBay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> offers the most mature and extensive API ecosystem with both REST and SOAP options, emphasizing flexibility and seller control</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Amazon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provides the most modernized API infrastructure (SP-API) with strongest automation capabilities but strictest compliance requirements</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Walmart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> delivers a streamlined, curated API experience focused on enterprise sellers with simplified onboarding but more limited access</t>
+    </r>
+  </si>
+  <si>
+    <t>1. eBay Developer Platform</t>
+  </si>
+  <si>
+    <t>Overview</t>
+  </si>
+  <si>
+    <t>eBay APIs (Application Programming Interface) are the front door to our global marketplace platform. They enable our business to expand into new contexts and allow third-party platforms to extend their value proposition. For over 20 years, the eBay Developers Program has provided our developers with capabilities at scale.</t>
+  </si>
+  <si>
+    <t>API Architecture</t>
+  </si>
+  <si>
+    <r>
+      <t>Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: RESTful (REST) and SOAP-based APIs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Authentication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: OAuth 2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Data Formats</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: JSON (REST), XML (SOAP)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Versioning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Included in URLs (e.g., v3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Languages Supported</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: C#, Java, Perl, PHP, Visual Basic or another language</t>
+    </r>
+  </si>
+  <si>
+    <t>Key API Categories</t>
+  </si>
+  <si>
+    <t>Buy APIs</t>
+  </si>
+  <si>
+    <t>Feed API</t>
+  </si>
+  <si>
+    <t>Browse API</t>
+  </si>
+  <si>
+    <t>Marketing API</t>
+  </si>
+  <si>
+    <t>Offer API</t>
+  </si>
+  <si>
+    <t>Order API</t>
+  </si>
+  <si>
+    <t>Marketplace Insights API</t>
+  </si>
+  <si>
+    <t>Sell APIs</t>
+  </si>
+  <si>
+    <t>Account API</t>
+  </si>
+  <si>
+    <t>Inventory API</t>
+  </si>
+  <si>
+    <t>Fulfillment API</t>
+  </si>
+  <si>
+    <t>Finances API</t>
+  </si>
+  <si>
+    <t>Analytics API</t>
+  </si>
+  <si>
+    <t>Metadata API</t>
+  </si>
+  <si>
+    <t>Compliance API</t>
+  </si>
+  <si>
+    <t>Logistics API</t>
+  </si>
+  <si>
+    <t>Listing API</t>
+  </si>
+  <si>
+    <t>Commerce APIs</t>
+  </si>
+  <si>
+    <t>Catalog API</t>
+  </si>
+  <si>
+    <t>Identity API</t>
+  </si>
+  <si>
+    <t>Taxonomy API</t>
+  </si>
+  <si>
+    <t>Translation API (Beta)</t>
+  </si>
+  <si>
+    <t>Key Features &amp; Capabilities</t>
+  </si>
+  <si>
+    <t>1. Inventory Management</t>
+  </si>
+  <si>
+    <t>Create and manage inventory item records, and then convert these inventory items into product offers on eBay marketplaces</t>
+  </si>
+  <si>
+    <t>Support for single and multi-variation listings</t>
+  </si>
+  <si>
+    <t>Real-time inventory synchronization</t>
+  </si>
+  <si>
+    <t>Out-of-Stock control feature</t>
+  </si>
+  <si>
+    <t>2. Order Management</t>
+  </si>
+  <si>
+    <t>Full order lifecycle management</t>
+  </si>
+  <si>
+    <t>Bulk order processing</t>
+  </si>
+  <si>
+    <t>Shipping label generation with eBay-negotiated rates</t>
+  </si>
+  <si>
+    <t>Returns and refund handling</t>
+  </si>
+  <si>
+    <r>
+      <t>3. AI-Powered Tools</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (2024 Updates)</t>
+    </r>
+  </si>
+  <si>
+    <t>AI-Powered Bulk Listing Tool Available to U.S. sellers using Seller Hub</t>
+  </si>
+  <si>
+    <t>Image Search API for visual shopping</t>
+  </si>
+  <si>
+    <t>Automated listing optimization</t>
+  </si>
+  <si>
+    <t>4. Analytics &amp; Reporting</t>
+  </si>
+  <si>
+    <t>APIs to retrieve selling metrics and detailed listing traffic reports for specified time periods</t>
+  </si>
+  <si>
+    <t>Seller performance metrics</t>
+  </si>
+  <si>
+    <t>Market insights and trends</t>
+  </si>
+  <si>
+    <t>Developer Program Benefits</t>
+  </si>
+  <si>
+    <t>eBay Developers Program membership is free</t>
+  </si>
+  <si>
+    <t>Sandbox testing environment</t>
+  </si>
+  <si>
+    <t>Comprehensive documentation</t>
+  </si>
+  <si>
+    <t>Developer Loyalty Program with enhanced support</t>
+  </si>
+  <si>
+    <t>Access to beta features</t>
+  </si>
+  <si>
+    <t>Recent Innovations (2024-2025)</t>
+  </si>
+  <si>
+    <t>Simplified Listing Flow for mobile-friendly listing creation</t>
+  </si>
+  <si>
+    <t>Redesigned Seller Hub with enhanced usability</t>
+  </si>
+  <si>
+    <t>Dedicated Sell Mode for Mobile App</t>
+  </si>
+  <si>
+    <t>Enhanced AI capabilities for bulk listing</t>
+  </si>
+  <si>
+    <t>2. Amazon Selling Partner API (SP-API)</t>
+  </si>
+  <si>
+    <t>SP-API allows Amazon Sellers to programmatically access their data on listings, orders, payments, reports and more. Increase selling efficiency, reduce labor requirements, and improve response time to customers.</t>
+  </si>
+  <si>
+    <t>Migration from MWS</t>
+  </si>
+  <si>
+    <t>Amazon intends to deprecate the Marketplace Web Services (MWS) APIs by March 31, 2024</t>
+  </si>
+  <si>
+    <t>SP-API represents a complete modernization with REST architecture</t>
+  </si>
+  <si>
+    <t>Enhanced security and privacy requirements</t>
+  </si>
+  <si>
+    <r>
+      <t>Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: REST-based framework that operates on the requirements of HTTP methods and primarily uses JSON-based inputs and outputs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Authentication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: OAuth 2.0 with AWS IAM roles</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Data Formats</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: JSON</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Infrastructure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Built on AWS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Rate Limiting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Well-documented with burst capabilities</t>
+    </r>
+  </si>
+  <si>
+    <t>Core Selling APIs</t>
+  </si>
+  <si>
+    <t>Orders API</t>
+  </si>
+  <si>
+    <t>Feeds API to upload data to Amazon to manage your selling business</t>
+  </si>
+  <si>
+    <t>FBA Inventory API to retrieve information about inventory in Amazon's fulfillment network</t>
+  </si>
+  <si>
+    <t>Catalog Items API</t>
+  </si>
+  <si>
+    <t>Pricing API</t>
+  </si>
+  <si>
+    <t>Product Fees API</t>
+  </si>
+  <si>
+    <t>Fulfillment APIs</t>
+  </si>
+  <si>
+    <t>Fulfillment Inbound API to create and update inbound inventory</t>
+  </si>
+  <si>
+    <t>Fulfillment Outbound API to retrieve information about Multi-Channel Fulfillment (MCF) orders</t>
+  </si>
+  <si>
+    <t>FBA Small and Light API</t>
+  </si>
+  <si>
+    <t>Business Intelligence</t>
+  </si>
+  <si>
+    <t>Reports API for comprehensive business analytics</t>
+  </si>
+  <si>
+    <t>Notifications API enables the subscription to various notifications, such as order updates, changes in fulfillment status, and pricing adjustments</t>
+  </si>
+  <si>
+    <t>Finances API for payment reconciliation</t>
+  </si>
+  <si>
+    <t>1. Enhanced Privacy &amp; Security</t>
+  </si>
+  <si>
+    <t>PII is deleted – Customer data from Amazon sources will be deleted 30 days after delivery confirmation</t>
+  </si>
+  <si>
+    <t>More consent – It will be mandatory for sellers to get explicit consent before acquiring consumers' data</t>
+  </si>
+  <si>
+    <t>Regular audits – Amazon will audit companies using their new API to ensure they are compliant</t>
+  </si>
+  <si>
+    <t>2. Automation Capabilities</t>
+  </si>
+  <si>
+    <t>Automated pricing adjustments</t>
+  </si>
+  <si>
+    <t>Bulk product uploads</t>
+  </si>
+  <si>
+    <t>Order fulfillment automation</t>
+  </si>
+  <si>
+    <t>3. Data Access &amp; Analytics</t>
+  </si>
+  <si>
+    <t>Business Reports for buy box percentage, traffic, sales</t>
+  </si>
+  <si>
+    <t>FBA data from warehouse storage to shipments</t>
+  </si>
+  <si>
+    <t>Customer Cohort Analysis</t>
+  </si>
+  <si>
+    <t>Date range reporting</t>
+  </si>
+  <si>
+    <t>4. Global Reach</t>
+  </si>
+  <si>
+    <t>You only need to register as a developer once, in the region and marketplace of your choice, to create an SP-API application that can be authorized by a selling partner from any region or marketplace</t>
+  </si>
+  <si>
+    <t>Application Types Supported</t>
+  </si>
+  <si>
+    <t>Applications for sellers that are available only to your organization, and are self-authorized</t>
+  </si>
+  <si>
+    <t>Applications that are publicly available and are authorized by sellers using OAuth</t>
+  </si>
+  <si>
+    <t>Vendor applications that are available only to your organization</t>
+  </si>
+  <si>
+    <t>Security &amp; Compliance</t>
+  </si>
+  <si>
+    <t>Amazon SP-API Guard for security compliance</t>
+  </si>
+  <si>
+    <t>GDPR and CCPA compliance built-in</t>
+  </si>
+  <si>
+    <t>Strict data retention policies</t>
+  </si>
+  <si>
+    <t>Mandatory security audits</t>
+  </si>
+  <si>
+    <t>3. Walmart Developer Platform</t>
+  </si>
+  <si>
+    <t>Marketplace sellers and partners can manage items, orders, prices, inventory, and more with Marketplace APIs.</t>
+  </si>
+  <si>
+    <r>
+      <t>Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: REST API with standard REST-style URLs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Data Formats</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: JSON and XML</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Security Update</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: TLS 1.0, 1.1, 1.2(weak ciphers) will no longer be supported for API requests beyond July 25th 2025</t>
+    </r>
+  </si>
+  <si>
+    <t>Core Marketplace APIs</t>
+  </si>
+  <si>
+    <t>Product Search: Retrieve detailed information about products</t>
+  </si>
+  <si>
+    <t>Inventory Management: Check stock levels and manage inventory</t>
+  </si>
+  <si>
+    <t>Order API: Allows users to create and manage orders</t>
+  </si>
+  <si>
+    <t>Items API with latest v5.0 spec</t>
+  </si>
+  <si>
+    <t>Fulfillment &amp; Logistics</t>
+  </si>
+  <si>
+    <t>WFS (Walmart Fulfillment Services) APIs</t>
+  </si>
+  <si>
+    <t>Ship with Walmart (SWW) APIs</t>
+  </si>
+  <si>
+    <t>Ship with Walmart (SWW) enables sellers to buy shipping at discounted rates directly from Walmart</t>
+  </si>
+  <si>
+    <t>Additional Services</t>
+  </si>
+  <si>
+    <t>Promotions API: Provides information on current promotional offers</t>
+  </si>
+  <si>
+    <t>Reports API with date range filtering</t>
+  </si>
+  <si>
+    <t>Multichannel Solutions (MCS) APIs</t>
+  </si>
+  <si>
+    <t>1. Curated Seller Environment</t>
+  </si>
+  <si>
+    <t>Rigorous application and vetting process</t>
+  </si>
+  <si>
+    <t>Higher barrier to entry but less competition</t>
+  </si>
+  <si>
+    <t>Focus on quality over quantity</t>
+  </si>
+  <si>
+    <t>2. Simplified Integration</t>
+  </si>
+  <si>
+    <t>Walmart provides an API Sandbox environment for testing APIs before moving to production</t>
+  </si>
+  <si>
+    <t>Modern infrastructure without legacy complexity</t>
+  </si>
+  <si>
+    <t>Streamlined onboarding process</t>
+  </si>
+  <si>
+    <t>3. Recent Updates (2024)</t>
+  </si>
+  <si>
+    <t>WFS Inventory API provides real-time inventory data for items fulfilled through Walmart Fulfillment Services</t>
+  </si>
+  <si>
+    <t>Seller Performance Standards, previously only available on Seller Center, are now accessible through both the Seller Center and API endpoints</t>
+  </si>
+  <si>
+    <t>Item spec 5.0 with improved data accuracy</t>
+  </si>
+  <si>
+    <t>4. Webhooks Support</t>
+  </si>
+  <si>
+    <t>Yes, the official Walmart API does have webhooks, which they refer to as "push notifications" or "Web Hooks"</t>
+  </si>
+  <si>
+    <t>Event-driven architecture for real-time updates</t>
+  </si>
+  <si>
+    <t>Support for various event types (ITEM, INVENTORY, ORDER)</t>
+  </si>
+  <si>
+    <t>Limitations</t>
+  </si>
+  <si>
+    <t>Currently, Walmart Marketplace is only available to U.S. customers</t>
+  </si>
+  <si>
+    <t>No drop shipping allowed</t>
+  </si>
+  <si>
+    <t>More limited third-party integration ecosystem</t>
+  </si>
+  <si>
+    <t>Smaller developer community compared to eBay and Amazon</t>
+  </si>
+  <si>
+    <t>Comparative Analysis</t>
+  </si>
+  <si>
+    <t>Market Position &amp; Scale</t>
+  </si>
+  <si>
+    <r>
+      <t>Amazon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 72.4% of total US retail marketplace sales</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>eBay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Established leader with 20+ years of API development</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Walmart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 2.2% of total US retail marketplace sales but fastest-growing</t>
+    </r>
+  </si>
+  <si>
+    <t>API Maturity &amp; Features</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>REST + SOAP</t>
+  </si>
+  <si>
+    <t>REST only</t>
+  </si>
+  <si>
+    <t>Authentication</t>
+  </si>
+  <si>
+    <t>OAuth 2.0</t>
+  </si>
+  <si>
+    <t>OAuth 2.0 + AWS IAM</t>
+  </si>
+  <si>
+    <t>Sandbox Environment</t>
+  </si>
+  <si>
+    <t>✓</t>
+  </si>
+  <si>
+    <t>Free Developer Access</t>
+  </si>
+  <si>
+    <t>✓ (with approval)</t>
+  </si>
+  <si>
+    <t>Webhooks/Notifications</t>
+  </si>
+  <si>
+    <t>AI/ML Features</t>
+  </si>
+  <si>
+    <t>✓ (Image Search, Bulk Listing)</t>
+  </si>
+  <si>
+    <t>Limited</t>
+  </si>
+  <si>
+    <t>Mobile API Support</t>
+  </si>
+  <si>
+    <t>Global Marketplace Support</t>
+  </si>
+  <si>
+    <t>× (US only)</t>
+  </si>
+  <si>
+    <t>Developer Experience</t>
+  </si>
+  <si>
+    <t>Most flexible and developer-friendly</t>
+  </si>
+  <si>
+    <t>Extensive documentation and samples</t>
+  </si>
+  <si>
+    <t>Free membership with immediate access</t>
+  </si>
+  <si>
+    <t>Large developer community</t>
+  </si>
+  <si>
+    <t>Most comprehensive automation capabilities</t>
+  </si>
+  <si>
+    <t>Strictest compliance requirements</t>
+  </si>
+  <si>
+    <t>Powerful but complex integration</t>
+  </si>
+  <si>
+    <t>Strong AWS infrastructure benefits</t>
+  </si>
+  <si>
+    <t>Simplest and most modern architecture</t>
+  </si>
+  <si>
+    <t>Curated approach reduces complexity</t>
+  </si>
+  <si>
+    <t>Limited but growing feature set</t>
+  </si>
+  <si>
+    <t>Best for enterprise sellers</t>
+  </si>
+  <si>
+    <t>Business Model Alignment</t>
+  </si>
+  <si>
+    <r>
+      <t>eBay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: eBay puts sellers in the spotlight</t>
+    </r>
+  </si>
+  <si>
+    <t>Individual seller-focused</t>
+  </si>
+  <si>
+    <t>Auction and fixed-price support</t>
+  </si>
+  <si>
+    <t>Maximum seller control</t>
+  </si>
+  <si>
+    <r>
+      <t>Amazon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Amazon prioritizes products over sellers</t>
+    </r>
+  </si>
+  <si>
+    <t>Product-centric approach</t>
+  </si>
+  <si>
+    <t>Buy Box competition model</t>
+  </si>
+  <si>
+    <t>FBA integration priority</t>
+  </si>
+  <si>
+    <r>
+      <t>Walmart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Hybrid approach</t>
+    </r>
+  </si>
+  <si>
+    <t>Quality over quantity</t>
+  </si>
+  <si>
+    <t>Competitive pricing focus</t>
+  </si>
+  <si>
+    <t>Curated seller environment</t>
+  </si>
+  <si>
+    <t>Recommendations</t>
+  </si>
+  <si>
+    <t>For Small/Individual Sellers</t>
+  </si>
+  <si>
+    <t>Best Choice: eBay</t>
+  </si>
+  <si>
+    <t>Lowest barrier to entry</t>
+  </si>
+  <si>
+    <t>Most flexible selling options</t>
+  </si>
+  <si>
+    <t>Free developer program</t>
+  </si>
+  <si>
+    <t>Extensive third-party tool ecosystem</t>
+  </si>
+  <si>
+    <t>For High-Volume Sellers</t>
+  </si>
+  <si>
+    <t>Best Choice: Amazon</t>
+  </si>
+  <si>
+    <t>Largest customer base</t>
+  </si>
+  <si>
+    <t>Most automation capabilities</t>
+  </si>
+  <si>
+    <t>FBA integration benefits</t>
+  </si>
+  <si>
+    <t>Comprehensive analytics</t>
+  </si>
+  <si>
+    <t>For Enterprise/Brand Sellers</t>
+  </si>
+  <si>
+    <t>Best Choice: Multi-Channel Approach</t>
+  </si>
+  <si>
+    <t>Start with Walmart for curated environment</t>
+  </si>
+  <si>
+    <t>Expand to Amazon for scale</t>
+  </si>
+  <si>
+    <t>Use eBay for unique/vintage items</t>
+  </si>
+  <si>
+    <t>Technical Considerations</t>
+  </si>
+  <si>
+    <t>1. API Integration Priority</t>
+  </si>
+  <si>
+    <t>Start with inventory synchronization</t>
+  </si>
+  <si>
+    <t>Implement order management</t>
+  </si>
+  <si>
+    <t>Add pricing automation</t>
+  </si>
+  <si>
+    <t>Integrate analytics last</t>
+  </si>
+  <si>
+    <t>2. Security Best Practices</t>
+  </si>
+  <si>
+    <t>Implement proper OAuth flows</t>
+  </si>
+  <si>
+    <t>Follow data retention policies</t>
+  </si>
+  <si>
+    <t>Regular security audits</t>
+  </si>
+  <si>
+    <t>PII handling compliance</t>
+  </si>
+  <si>
+    <t>3. Performance Optimization</t>
+  </si>
+  <si>
+    <t>Respect rate limits</t>
+  </si>
+  <si>
+    <t>Implement proper caching</t>
+  </si>
+  <si>
+    <t>Use bulk operations where available</t>
+  </si>
+  <si>
+    <t>Monitor API health dashboards</t>
+  </si>
+  <si>
+    <t>Future Outlook</t>
+  </si>
+  <si>
+    <t>Industry Trends</t>
+  </si>
+  <si>
+    <t>Increased AI/ML integration across all platforms</t>
+  </si>
+  <si>
+    <t>Enhanced mobile commerce capabilities</t>
+  </si>
+  <si>
+    <t>Greater emphasis on seller analytics</t>
+  </si>
+  <si>
+    <t>Stricter data privacy requirements</t>
+  </si>
+  <si>
+    <t>Platform-Specific Developments</t>
+  </si>
+  <si>
+    <t>Continued AI tool development</t>
+  </si>
+  <si>
+    <t>Enhanced mobile selling features</t>
+  </si>
+  <si>
+    <t>Expanded international capabilities</t>
+  </si>
+  <si>
+    <t>Further SP-API enhancements</t>
+  </si>
+  <si>
+    <t>Tighter FBA integration</t>
+  </si>
+  <si>
+    <t>Advanced automation features</t>
+  </si>
+  <si>
+    <t>Rapid feature expansion</t>
+  </si>
+  <si>
+    <t>International market entry</t>
+  </si>
+  <si>
+    <t>Enhanced fulfillment options</t>
+  </si>
+  <si>
+    <t>Conclusion</t>
+  </si>
+  <si>
+    <t>Each platform offers distinct advantages aligned with their marketplace philosophy. eBay provides the most flexibility and developer freedom, Amazon offers the most comprehensive automation and largest customer base, while Walmart presents a curated, quality-focused environment with modern infrastructure.</t>
+  </si>
+  <si>
+    <t>Successful sellers increasingly adopt a multi-channel strategy, leveraging each platform's strengths while using integration tools to manage complexity. The key to success lies in understanding each platform's unique requirements and aligning your technical implementation with your business goals.</t>
+  </si>
+  <si>
+    <t>As these platforms continue to evolve, staying informed about API updates and new features will be crucial for maintaining competitive advantage in the e-commerce landscape.</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1110,6 +3473,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1131,7 +3510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1148,6 +3527,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1485,7 +3879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9BD50D-38A2-437A-B127-A0BE57D2A2F3}">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+    <sheetView topLeftCell="A105" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -2299,4 +4693,2577 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FA7A71-250A-4856-88A2-21C6D02B3517}">
+  <dimension ref="A1:A33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A40D6C-0DBD-4B26-8E63-8542424BDE0C}">
+  <dimension ref="A1:D139"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC354DBA-275F-4F63-8262-D83288E43080}">
+  <dimension ref="A1:D430"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="F285" sqref="F285"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="7"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="11" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="7"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="7"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="7"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="11" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="11" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="7"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="7"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="7"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="11" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="11" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="7"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="7"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="7"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="11" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="11" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="11" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A92" s="9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="7"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A100" s="9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="7"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A111" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A115" s="9" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="7"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A121" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="7"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="8" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A129" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A131" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="7"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A140" s="10" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="7"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A146" s="10" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="7"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A152" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="7"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="7"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="7"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="11" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="11" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="7"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="8" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="7"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="7"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="11" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="11" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="11" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="7"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="7"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="7"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" s="11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="11" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="7"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="8" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="7"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="7"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="11" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A182" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="7"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="7" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A188" s="9" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="7"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" s="7" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" s="7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A197" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A199" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A203" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" s="7"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" s="8" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" s="8" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" s="8" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A211" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A213" s="10" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" s="7"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" s="7" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" s="7" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" s="7" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A221" s="10" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" s="7"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" s="7" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" s="7" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A227" s="10" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="7"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="7" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A233" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="7"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" s="8" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" s="7"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" s="7"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" s="11" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" s="11" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" s="11" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" s="7"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" s="8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" s="7"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" s="7"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" s="11" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" s="11" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" s="11" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" s="7"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" s="7"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" s="7"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" s="11" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" s="11" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" s="11" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" s="7"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" s="8" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" s="7"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" s="7"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" s="11" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" s="11" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A263" s="9" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" s="7"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" s="7" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" s="7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A272" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A274" s="9" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" s="7"/>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" s="8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" s="8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A280" s="9" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D282" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A283" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="D283" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A284" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="D284" s="5" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A285" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="D285" s="5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A286" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="D286" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A287" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="D287" s="5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A288" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="D288" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A289" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="D289" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A290" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="D290" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A292" s="9" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" s="7"/>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" s="7" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" s="7" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" s="7" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" s="7" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" s="7"/>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" s="7" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" s="7" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" s="7" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" s="7" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" s="7"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" s="7" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" s="7" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312" s="7" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313" s="7" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A315" s="9" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318" s="7"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320" s="7" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" s="7" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324" s="7"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325" s="7" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326" s="7" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327" s="7" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330" s="7"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331" s="7" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332" s="7" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333" s="7" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A337" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A339" s="9" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342" s="7"/>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" s="7" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" s="7" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" s="7" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" s="7" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A348" s="9" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351" s="7"/>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352" s="7" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" s="7" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354" s="7" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355" s="7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A357" s="9" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360" s="7"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361" s="7" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362" s="7" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363" s="7" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A365" s="9" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366" s="7"/>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367" s="8" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368" s="7"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A369" s="7"/>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A370" s="11" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371" s="11" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A372" s="11" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A373" s="11" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A374" s="7"/>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A375" s="8" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A376" s="7"/>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A377" s="7"/>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A378" s="11" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A379" s="11" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A380" s="11" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A381" s="11" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A382" s="7"/>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A383" s="8" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A384" s="7"/>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A385" s="7"/>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A386" s="11" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A387" s="11" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A388" s="11" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A389" s="11" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A393" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A395" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A396" s="7"/>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A397" s="7" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A398" s="7" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A399" s="7" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A400" s="7" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A402" s="9" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A404" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A405" s="7"/>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A406" s="7" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A407" s="7" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A408" s="7" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A410" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A411" s="7"/>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A412" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A413" s="7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A414" s="7" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A416" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A417" s="7"/>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A418" s="7" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A419" s="7" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A420" s="7" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A424" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>611</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>